--- a/temp.xlsx
+++ b/temp.xlsx
@@ -194,6 +194,17 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.4375" customWidth="true"/>
+    <col min="2" max="2" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="4" max="4" width="23.4375" customWidth="true"/>
+    <col min="5" max="5" width="23.4375" customWidth="true"/>
+    <col min="6" max="6" width="23.4375" customWidth="true"/>
+    <col min="7" max="7" width="23.4375" customWidth="true"/>
+    <col min="8" max="8" width="23.4375" customWidth="true"/>
+    <col min="9" max="9" width="23.4375" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
